--- a/2025-10-12/12_olbg_fixtures.xlsx
+++ b/2025-10-12/12_olbg_fixtures.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Comments</t>
+          <t>Odds</t>
         </is>
       </c>
     </row>
@@ -493,7 +493,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>45/47 Win Tips</t>
+          <t>52/54 Win Tips</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -503,7 +503,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>7 comments</t>
+          <t>1.15</t>
         </is>
       </c>
     </row>
@@ -530,17 +530,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>39/41 Win Tips</t>
+          <t>46/47 Win Tips</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>98</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>6 comments</t>
+          <t>1.18</t>
         </is>
       </c>
     </row>
@@ -567,7 +567,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>38/42 Win Tips</t>
+          <t>43/48 Win Tips</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>10 comments</t>
+          <t>1.70</t>
         </is>
       </c>
     </row>
@@ -604,17 +604,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>34/37 Win Tips</t>
+          <t>42/44 Win Tips</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>95</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>5 comments</t>
+          <t>1.10</t>
         </is>
       </c>
     </row>
@@ -641,17 +641,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>31/34 Win Tips</t>
+          <t>34/38 Win Tips</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>89</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3 comments</t>
+          <t>1.40</t>
         </is>
       </c>
     </row>
@@ -678,17 +678,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>26/28 Win Tips</t>
+          <t>30/32 Win Tips</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>94</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>6 comments</t>
+          <t>1.44</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>23/24 Win Tips</t>
+          <t>25/26 Win Tips</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>5 comments</t>
+          <t>1.83</t>
         </is>
       </c>
     </row>
@@ -752,17 +752,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>18/19 Win Tips</t>
+          <t>22/23 Win Tips</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>96</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3 comments</t>
+          <t>1.00</t>
         </is>
       </c>
     </row>
@@ -789,103 +789,103 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>15/17 Win Tips</t>
+          <t>16/19 Win Tips</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>84</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>6 comments</t>
+          <t>2.25</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Egypt v Guinea Bissau</t>
+          <t>Sporting Gijon v Racing Santander</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>W Cup African Qual</t>
+          <t>Spain Segunda</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-10-12T19:00:00.000Z</t>
+          <t>2025-10-12T14:15:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>13/14 Win Tips</t>
+          <t>14/25 Win Tips</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>56</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2 comments</t>
+          <t>3.60</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Albacete Balompie v AD Ceuta</t>
+          <t>Egypt v Guinea Bissau</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Albacete Balompie</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Spain Segunda</t>
+          <t>W Cup African Qual</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-10-12T12:00:00.000Z</t>
+          <t>2025-10-12T19:00:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12/24 Win Tips</t>
+          <t>13/14 Win Tips</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>93</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1 comment</t>
+          <t>1.25</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sporting Gijon v Racing Santander</t>
+          <t>Burgos v Valladolid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -895,29 +895,29 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-10-12T14:15:00.000Z</t>
+          <t>2025-10-12T16:30:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11/22 Win Tips</t>
+          <t>12/17 Win Tips</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>71</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>5 comments</t>
+          <t>3.05</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Burgos v Valladolid</t>
+          <t>Chad v Central African Republic</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -927,39 +927,39 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Spain Segunda</t>
+          <t>W Cup African Qual</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-10-12T16:30:00.000Z</t>
+          <t>2025-10-12T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11/15 Win Tips</t>
+          <t>10/13 Win Tips</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>77</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>4 comments</t>
+          <t>3.15</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Chad v Central African Republic</t>
+          <t>Zambia v Niger</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Niger</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -969,34 +969,34 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-10-12T16:00:00.000Z</t>
+          <t>2025-10-12T13:00:00.000Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>9/12 Win Tips</t>
+          <t>9/18 Win Tips</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2 comments</t>
+          <t>4.75</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Zambia v Niger</t>
+          <t>Burkina Faso v Ethiopia</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>Burkina Faso</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1006,44 +1006,44 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-10-12T13:00:00.000Z</t>
+          <t>2025-10-12T19:00:00.000Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>8/16 Win Tips</t>
+          <t>9/9 Win Tips</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>3 comments</t>
+          <t>1.25</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Ghana v Comoros</t>
+          <t>Malta v Bosnia Herzegovina</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Bosnia Herzegovina</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>W Cup African Qual</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-10-12T19:00:00.000Z</t>
+          <t>2025-10-12T17:00:00.000Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1058,19 +1058,19 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2 comments</t>
+          <t>1.65</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Burkina Faso v Ethiopia</t>
+          <t>Ghana v Comoros</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Burkina Faso</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1095,7 +1095,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2 comments</t>
+          <t>1.33</t>
         </is>
       </c>
     </row>
@@ -1122,91 +1122,91 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>7/13 Win Tips</t>
+          <t>7/15 Win Tips</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>47</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>3 comments</t>
+          <t>3.20</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Malta v Bosnia Herzegovina</t>
+          <t>Malaga v Deportivo La Coruna</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Bosnia Herzegovina</t>
+          <t>Deportivo La Coruna</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Spain Segunda</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-10-12T17:00:00.000Z</t>
+          <t>2025-10-12T19:00:00.000Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>7/8 Win Tips</t>
+          <t>7/10 Win Tips</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>70</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2.30</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Malaga v Deportivo La Coruna</t>
+          <t>Nottm Forest v Chelsea</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Deportivo La Coruna</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Spain Segunda</t>
+          <t>England Premier League</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-10-12T19:00:00.000Z</t>
+          <t>2025-10-18T11:30:00.000Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>7/10 Win Tips</t>
+          <t>7/11 Win Tips</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>64</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2 comments</t>
+          <t>1.95</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2 comments</t>
+          <t>7.50</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2 comments</t>
+          <t>5.00</t>
         </is>
       </c>
     </row>
